--- a/LOGS/3dc31b6a-137c-436b-add1-2fbe8291f93a/main_page_service_output/main_pages.xlsx
+++ b/LOGS/3dc31b6a-137c-436b-add1-2fbe8291f93a/main_page_service_output/main_pages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
   <si>
     <t>Particulars</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>noncurrent</t>
+  </si>
+  <si>
+    <t>equity</t>
   </si>
   <si>
     <t>REVENUE FROM CONTINUING ACTIVITIES</t>
@@ -887,10 +890,10 @@
         <v>13067604</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1115,7 +1118,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1132,7 +1135,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>26475757</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>24426590</v>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>1078374</v>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>5786</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>111092</v>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>27034</v>
@@ -1230,7 +1233,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>183486</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>643396</v>
@@ -1274,7 +1277,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1285,10 +1288,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>201740</v>
@@ -1307,7 +1310,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>441656</v>
@@ -1359,7 +1362,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1368,12 +1371,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>23537561</v>
@@ -1382,12 +1385,12 @@
         <v>21527235</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>-24081142</v>
@@ -1396,12 +1399,12 @@
         <v>-22512916</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>231152</v>
@@ -1410,12 +1413,12 @@
         <v>48440</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>-19808</v>
@@ -1424,12 +1427,12 @@
         <v>-13238</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>-177180</v>
@@ -1438,12 +1441,12 @@
         <v>-296309</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1452,12 +1455,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>-509417</v>
@@ -1466,12 +1469,12 @@
         <v>-1246788</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1480,12 +1483,12 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>-4074</v>
@@ -1494,12 +1497,12 @@
         <v>-6165</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1508,12 +1511,12 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>-4074</v>
@@ -1522,12 +1525,12 @@
         <v>-6165</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1536,12 +1539,12 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>-995000</v>
@@ -1550,12 +1553,12 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16">
         <v>1500000</v>
@@ -1564,12 +1567,12 @@
         <v>995000</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17">
         <v>-338010</v>
@@ -1578,12 +1581,12 @@
         <v>-471669</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18">
         <v>-105578</v>
@@ -1592,12 +1595,12 @@
         <v>-101265</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1606,12 +1609,12 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>61412</v>
@@ -1620,12 +1623,12 @@
         <v>422066</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>-452079</v>
@@ -1634,12 +1637,12 @@
         <v>-830888</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>2935329</v>
@@ -1648,12 +1651,12 @@
         <v>3766217</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>2483250</v>
@@ -1662,7 +1665,7 @@
         <v>2935329</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
